--- a/2-simulation-and-optimization/optimization/solver-regression.xlsx
+++ b/2-simulation-and-optimization/optimization/solver-regression.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-advanced-statistics-for-business-analytics\2-simulation-and-optimization\optimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-advanced-statistics-for-business-analytics\2-simulation-and-optimization\optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B506C3DF-6DEC-4478-94CE-A0A0018876FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B30D80-9A20-468A-9A3F-A6C72194AA3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="13373" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -2836,19 +2836,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2864,28 +2864,28 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="C1">
-        <v>-0.4</v>
+        <v>1</v>
       </c>
       <c r="D1">
-        <v>0.42299999999999999</v>
+        <v>1</v>
       </c>
       <c r="F1">
         <f>SUM(F3:F152)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3.3</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>3.3</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>3.5</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>3.5</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>3.6</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>3.7</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>3.8</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>3.9</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>3.9</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>3.9</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>4</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>4</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>4</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>4</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>4</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>4.0999999999999996</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>4.0999999999999996</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>4.0999999999999996</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>4.2</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>4.2</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>4.2</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>4.2</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>4.3</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>4.3</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>4.4000000000000004</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>4.4000000000000004</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>4.4000000000000004</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>4.4000000000000004</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>4.5</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>4.5</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>4.5</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>4.5</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>4.5</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>4.5</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>4.5</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>4.5</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>4.5999999999999996</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>4.5999999999999996</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>4.5999999999999996</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>4.7</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>4.7</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>4.7</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>4.7</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>4.7</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>4.8</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>4.8</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>4.8</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>4.8</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>4.9000000000000004</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>4.9000000000000004</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>4.9000000000000004</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>4.9000000000000004</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>4.9000000000000004</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>5</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>5</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>5</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>5</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>5.0999999999999996</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>5.0999999999999996</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>5.0999999999999996</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>5.0999999999999996</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>5.0999999999999996</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>5.0999999999999996</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>5.0999999999999996</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>5.0999999999999996</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>5.2</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>5.2</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>5.3</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>5.3</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>5.4</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>5.4</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>5.5</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>5.5</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>5.5</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>5.6</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>5.6</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>5.6</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>5.6</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>5.6</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>5.6</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>5.7</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>5.7</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A86">
         <v>5.7</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A87">
         <v>5.8</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A88">
         <v>5.8</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A89">
         <v>5.8</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A90">
         <v>5.9</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A91">
         <v>5.9</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A92">
         <v>6</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A93">
         <v>6</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A94">
         <v>6.1</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A95">
         <v>6.1</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A96">
         <v>6.1</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A97">
         <v>6.3</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A98">
         <v>6.4</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A99">
         <v>6.6</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A100">
         <v>6.7</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A101">
         <v>6.7</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A102">
         <v>6.9</v>
       </c>
